--- a/medicine/Enfance/Liad_Shoham/Liad_Shoham.xlsx
+++ b/medicine/Enfance/Liad_Shoham/Liad_Shoham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liad Shoham (en hébreu : ליעד שהם), né le 31 décembre 1971 à Givatayim, près  de Tel-Aviv, est un écrivain israélien, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un diplomate et employé du Ministère de la Défense d'Israël et d’une mère longtemps proviseure du lycée Tihon Hadash, il passe une partie de son enfance à Paris, où son père est attaché d'ambassade. Quand la famille rentre au pays, elle s'installe à Petah Tikva.
 Liad Shoham fait des études supérieures et obtient un diplôme en Droit à l'université hébraïque de Jérusalem, avant d'étudier le Droit commercial international au London School of Economics. Membre du barreau d'Israël à partir de 1997, il travaille comme attorney spécialisé en Droit administratif et en Droit des affaires. Il est également membre d'un cabinet d'avocats.
@@ -544,10 +558,12 @@
           <t>Œuvre traduite en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Misdar ziyhwy Publié en français sous le titre Tel Aviv suspects, traduit par Jean-Luc Allouche, Paris, Éditions les Escales, coll. « Les Escales noires », 2013, 372 p.  (ISBN 978-2-36569-042-3)[1]
-ʿIyr miqlaṭ Publié en français sous le titre Terminus Tel-Aviv, traduit par Jean-Luc Allouche, Paris, Éditions les Escales, coll. « Les Escales noires », 2014, 376 p.  (ISBN 978-2-36569-043-0)[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Misdar ziyhwy Publié en français sous le titre Tel Aviv suspects, traduit par Jean-Luc Allouche, Paris, Éditions les Escales, coll. « Les Escales noires », 2013, 372 p.  (ISBN 978-2-36569-042-3)
+ʿIyr miqlaṭ Publié en français sous le titre Terminus Tel-Aviv, traduit par Jean-Luc Allouche, Paris, Éditions les Escales, coll. « Les Escales noires », 2014, 376 p.  (ISBN 978-2-36569-043-0)
 אם המושבות Publié en français sous le titre Oranges amères, traduit par Laurent Cohen, Paris, Éditions les Escales, coll. « Les Escales noires », 2015, 432 p.  (ISBN 978-2-365-69141-3)</t>
         </is>
       </c>
